--- a/Card offset calcs.xlsx
+++ b/Card offset calcs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>angle</t>
   </si>
@@ -53,13 +53,16 @@
     <t>" y="</t>
   </si>
   <si>
-    <t>"&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve"> rotate="</t>
   </si>
   <si>
     <t>" x="</t>
+  </si>
+  <si>
+    <t>num dp</t>
+  </si>
+  <si>
+    <t>"/&gt;</t>
   </si>
 </sst>
 </file>
@@ -382,7 +385,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="N2" sqref="N2:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,35 +422,35 @@
       </c>
       <c r="D2">
         <f>$A$14*SIN(PI()*$B2/180)</f>
-        <v>-70.710678118654741</v>
+        <v>-106.06601717798212</v>
       </c>
       <c r="E2">
         <f>$A$14*COS(PI()*$B2/180)</f>
-        <v>70.710678118654755</v>
+        <v>106.06601717798213</v>
       </c>
       <c r="F2" s="1">
         <f>D2+B$14</f>
-        <v>29.289321881345259</v>
+        <v>-6.0660171779821184</v>
       </c>
       <c r="G2" s="1">
         <f>C$14-E2</f>
-        <v>129.28932188134524</v>
+        <v>93.933982822017867</v>
       </c>
       <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
         <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
       </c>
       <c r="L2" t="s">
         <v>8</v>
       </c>
       <c r="M2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N2" s="2" t="str">
-        <f>CONCATENATE(J2,FIXED(B2,0),K2,FIXED(F2,0),L2,FIXED(G2,0),M2)</f>
-        <v xml:space="preserve"> rotate="-45" x="29" y="129"&gt;</v>
+        <f>CONCATENATE(J2,FIXED(B2,$D$14),K2,FIXED(F2,$D$14),L2,FIXED(G2,$D$14),M2)</f>
+        <v xml:space="preserve"> rotate="-45.0" x="-6.1" y="93.9"/&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -461,36 +464,40 @@
         <v>200</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:E11" si="0">$A$14*SIN(PI()*$B3/180)</f>
-        <v>-57.357643635104608</v>
+        <f t="shared" ref="D3:D11" si="0">$A$14*SIN(PI()*$B3/180)</f>
+        <v>-86.036465452656913</v>
       </c>
       <c r="E3">
         <f>$A$14*COS(PI()*$B3/180)</f>
-        <v>81.915204428899173</v>
+        <v>122.87280664334877</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F11" si="1">D3+B$14</f>
-        <v>42.642356364895392</v>
+        <v>13.963534547343087</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" ref="G3:G11" si="2">C$14-E3</f>
-        <v>118.08479557110083</v>
-      </c>
-      <c r="J3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" t="s">
-        <v>9</v>
+        <v>77.127193356651233</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:L3" si="3">J2</f>
+        <v xml:space="preserve"> rotate="</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" si="3"/>
+        <v>" x="</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="3"/>
+        <v>" y="</v>
+      </c>
+      <c r="M3" t="str">
+        <f>M2</f>
+        <v>"/&gt;</v>
       </c>
       <c r="N3" s="2" t="str">
-        <f t="shared" ref="N3:N11" si="3">CONCATENATE(J3,FIXED(B3,0),K3,FIXED(F3,0),L3,FIXED(G3,0),M3)</f>
-        <v xml:space="preserve"> rotate="-35" x="43" y="118"&gt;</v>
+        <f t="shared" ref="N3:N11" si="4">CONCATENATE(J3,FIXED(B3,$D$14),K3,FIXED(F3,$D$14),L3,FIXED(G3,$D$14),M3)</f>
+        <v xml:space="preserve"> rotate="-35.0" x="14.0" y="77.1"/&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -505,35 +512,39 @@
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>-42.261826174069945</v>
+        <v>-63.392739261104914</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E11" si="4">$A$14*COS(PI()*$B4/180)</f>
-        <v>90.630778703664987</v>
+        <f t="shared" ref="E4:E11" si="5">$A$14*COS(PI()*$B4/180)</f>
+        <v>135.94616805549748</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="1"/>
-        <v>57.738173825930055</v>
+        <v>36.607260738895086</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="2"/>
-        <v>109.36922129633501</v>
-      </c>
-      <c r="J4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" t="s">
-        <v>9</v>
+        <v>64.053831944502519</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" ref="J4:J11" si="6">J3</f>
+        <v xml:space="preserve"> rotate="</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" ref="K4:K11" si="7">K3</f>
+        <v>" x="</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" ref="L4:L11" si="8">L3</f>
+        <v>" y="</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" ref="M4:M11" si="9">M3</f>
+        <v>"/&gt;</v>
       </c>
       <c r="N4" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> rotate="-25" x="58" y="109"&gt;</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> rotate="-25.0" x="36.6" y="64.1"/&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -548,35 +559,39 @@
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>-25.881904510252074</v>
+        <v>-38.822856765378113</v>
       </c>
       <c r="E5">
-        <f t="shared" si="4"/>
-        <v>96.592582628906825</v>
+        <f t="shared" si="5"/>
+        <v>144.88887394336024</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>74.11809548974793</v>
+        <v>61.177143234621887</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="2"/>
-        <v>103.40741737109317</v>
-      </c>
-      <c r="J5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" t="s">
-        <v>9</v>
+        <v>55.111126056639762</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> rotate="</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="7"/>
+        <v>" x="</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="8"/>
+        <v>" y="</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="9"/>
+        <v>"/&gt;</v>
       </c>
       <c r="N5" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> rotate="-15" x="74" y="103"&gt;</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> rotate="-15.0" x="61.2" y="55.1"/&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -591,35 +606,39 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>-8.7155742747658174</v>
+        <v>-13.073361412148724</v>
       </c>
       <c r="E6">
-        <f t="shared" si="4"/>
-        <v>99.619469809174561</v>
+        <f t="shared" si="5"/>
+        <v>149.42920471376183</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="1"/>
-        <v>91.284425725234186</v>
+        <v>86.926638587851272</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="2"/>
-        <v>100.38053019082544</v>
-      </c>
-      <c r="J6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" t="s">
-        <v>9</v>
+        <v>50.570795286238166</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> rotate="</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="7"/>
+        <v>" x="</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="8"/>
+        <v>" y="</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="9"/>
+        <v>"/&gt;</v>
       </c>
       <c r="N6" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> rotate="-5" x="91" y="100"&gt;</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> rotate="-5.0" x="86.9" y="50.6"/&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -634,35 +653,39 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>8.7155742747658174</v>
+        <v>13.073361412148724</v>
       </c>
       <c r="E7">
-        <f t="shared" si="4"/>
-        <v>99.619469809174561</v>
+        <f t="shared" si="5"/>
+        <v>149.42920471376183</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="1"/>
-        <v>108.71557427476581</v>
+        <v>113.07336141214873</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="2"/>
-        <v>100.38053019082544</v>
-      </c>
-      <c r="J7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" t="s">
-        <v>9</v>
+        <v>50.570795286238166</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> rotate="</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="7"/>
+        <v>" x="</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="8"/>
+        <v>" y="</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="9"/>
+        <v>"/&gt;</v>
       </c>
       <c r="N7" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> rotate="5" x="109" y="100"&gt;</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> rotate="5.0" x="113.1" y="50.6"/&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -677,35 +700,39 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>25.881904510252074</v>
+        <v>38.822856765378113</v>
       </c>
       <c r="E8">
-        <f t="shared" si="4"/>
-        <v>96.592582628906825</v>
+        <f t="shared" si="5"/>
+        <v>144.88887394336024</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="1"/>
-        <v>125.88190451025207</v>
+        <v>138.82285676537811</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="2"/>
-        <v>103.40741737109317</v>
-      </c>
-      <c r="J8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" t="s">
-        <v>8</v>
-      </c>
-      <c r="M8" t="s">
-        <v>9</v>
+        <v>55.111126056639762</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> rotate="</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="7"/>
+        <v>" x="</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="8"/>
+        <v>" y="</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="9"/>
+        <v>"/&gt;</v>
       </c>
       <c r="N8" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> rotate="15" x="126" y="103"&gt;</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> rotate="15.0" x="138.8" y="55.1"/&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -720,35 +747,39 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>42.261826174069945</v>
+        <v>63.392739261104914</v>
       </c>
       <c r="E9">
-        <f t="shared" si="4"/>
-        <v>90.630778703664987</v>
+        <f t="shared" si="5"/>
+        <v>135.94616805549748</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="1"/>
-        <v>142.26182617406994</v>
+        <v>163.39273926110491</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="2"/>
-        <v>109.36922129633501</v>
-      </c>
-      <c r="J9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" t="s">
-        <v>9</v>
+        <v>64.053831944502519</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> rotate="</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="7"/>
+        <v>" x="</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="8"/>
+        <v>" y="</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="9"/>
+        <v>"/&gt;</v>
       </c>
       <c r="N9" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> rotate="25" x="142" y="109"&gt;</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> rotate="25.0" x="163.4" y="64.1"/&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -763,35 +794,39 @@
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>57.357643635104608</v>
+        <v>86.036465452656913</v>
       </c>
       <c r="E10">
-        <f t="shared" si="4"/>
-        <v>81.915204428899173</v>
+        <f t="shared" si="5"/>
+        <v>122.87280664334877</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="1"/>
-        <v>157.35764363510461</v>
+        <v>186.0364654526569</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="2"/>
-        <v>118.08479557110083</v>
-      </c>
-      <c r="J10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" t="s">
-        <v>8</v>
-      </c>
-      <c r="M10" t="s">
-        <v>9</v>
+        <v>77.127193356651233</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> rotate="</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="7"/>
+        <v>" x="</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="8"/>
+        <v>" y="</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="9"/>
+        <v>"/&gt;</v>
       </c>
       <c r="N10" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> rotate="35" x="157" y="118"&gt;</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> rotate="35.0" x="186.0" y="77.1"/&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -806,35 +841,39 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>70.710678118654741</v>
+        <v>106.06601717798212</v>
       </c>
       <c r="E11">
-        <f t="shared" si="4"/>
-        <v>70.710678118654755</v>
+        <f t="shared" si="5"/>
+        <v>106.06601717798213</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="1"/>
-        <v>170.71067811865476</v>
+        <v>206.06601717798213</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="2"/>
-        <v>129.28932188134524</v>
-      </c>
-      <c r="J11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" t="s">
-        <v>8</v>
-      </c>
-      <c r="M11" t="s">
-        <v>9</v>
+        <v>93.933982822017867</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> rotate="</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="7"/>
+        <v>" x="</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="8"/>
+        <v>" y="</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="9"/>
+        <v>"/&gt;</v>
       </c>
       <c r="N11" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> rotate="45" x="171" y="129"&gt;</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> rotate="45.0" x="206.1" y="93.9"/&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -847,16 +886,22 @@
       <c r="C13" t="s">
         <v>4</v>
       </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="B14">
         <v>100</v>
       </c>
       <c r="C14">
         <v>200</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
